--- a/InputData/io-model/PoNDHbE/Perc of National Debt Held by Entity.xlsx
+++ b/InputData/io-model/PoNDHbE/Perc of National Debt Held by Entity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\PoNDHbE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\io-model\PoNDHbE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65C0E6E5-8CEA-47EB-9224-2FF957AD31C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9920A425-351B-4BCC-BB21-C89452DDEA92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="435" windowWidth="23955" windowHeight="16500" xr2:uid="{451D0B24-AF55-4E31-8A85-DA035DBAD1DC}"/>
+    <workbookView xWindow="9150" yWindow="690" windowWidth="29520" windowHeight="21060" xr2:uid="{451D0B24-AF55-4E31-8A85-DA035DBAD1DC}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>PoNDHbE Percent of National Debt Held by Entity</t>
   </si>
@@ -288,21 +288,6 @@
   </si>
   <si>
     <t>foreign entities</t>
-  </si>
-  <si>
-    <t>other energy suppliers</t>
-  </si>
-  <si>
-    <t>electricity suppliers</t>
-  </si>
-  <si>
-    <t>coal suppliers</t>
-  </si>
-  <si>
-    <t>natural gas and petroleum suppliers</t>
-  </si>
-  <si>
-    <t>biomass and biofuel suppliers</t>
   </si>
   <si>
     <t>Average % of Debt Held</t>
@@ -355,6 +340,9 @@
       </rPr>
       <t>exclude all intra-governmental debt</t>
     </r>
+  </si>
+  <si>
+    <t>domestic industry</t>
   </si>
 </sst>
 </file>
@@ -1072,47 +1060,47 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -3117,10 +3105,10 @@
         <v>42</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3275,7 +3263,7 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3287,10 +3275,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B1" s="32" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3303,7 +3291,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B3">
         <f>SUM(Calcs!D3:D5,Calcs!D9)</f>
@@ -3326,46 +3314,6 @@
       <c r="B5">
         <f>Calcs!D8</f>
         <v>0.46119785168008015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/PoNDHbE/Perc of National Debt Held by Entity.xlsx
+++ b/InputData/io-model/PoNDHbE/Perc of National Debt Held by Entity.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adolg\Dropbox\Energy Innovation IO\Deliverable IO files\EU\PoNDHbE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\io-model\PoNDHbE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2C69F9-2501-4595-9B92-807DFCF53461}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="60" windowWidth="16320" windowHeight="20145" xr2:uid="{451D0B24-AF55-4E31-8A85-DA035DBAD1DC}"/>
+    <workbookView xWindow="765" yWindow="60" windowWidth="16320" windowHeight="20145"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -377,7 +376,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
@@ -543,14 +542,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
@@ -609,6 +607,12 @@
     <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -616,18 +620,15 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00B5581E-B353-45CF-825C-BCADC57BBDF5}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{E3A53BD8-E72B-4E60-9A25-C1B3948A223A}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="3"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -988,7 +989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33051D97-709F-4BD1-B350-8CFE7D780BAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -998,127 +999,127 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="26" t="s">
         <v>86</v>
       </c>
       <c r="B3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="32">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B4" s="28">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="27" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="29" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" s="26"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{328DB63F-2988-482E-BEEE-BC96AAD5E731}"/>
+    <hyperlink ref="B6" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1126,7 +1127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F730862-3945-466D-875D-3FE4993604E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1136,17 +1137,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>27</v>
       </c>
@@ -1155,7 +1156,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>26</v>
       </c>
@@ -1163,7 +1164,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>28</v>
       </c>
@@ -1177,7 +1178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F44269D7-8E46-477C-8558-C7B5C0AE1DA8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1187,115 +1188,115 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="16" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="19.86328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="41.73046875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.73046875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="16" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.265625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.265625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="28"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="31"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="12" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="C14" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="B16" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1304,9 +1305,9 @@
     <mergeCell ref="B8:O8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{2523F800-711C-4A9D-B41B-BEC7449C44B9}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{C5BC953E-C1EC-4911-8268-6FAA364EC78E}"/>
-    <hyperlink ref="B17" location="'Sheet 1'!A1" display="Sheet 1" xr:uid="{257669DD-21D7-4938-9171-14F6186CFF9C}"/>
+    <hyperlink ref="A7" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B17" location="'Sheet 1'!A1" display="Sheet 1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -1314,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A450435D-9FC4-4129-89A8-419358C7DC31}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1324,344 +1325,344 @@
       <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="30.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.1328125" style="4"/>
+    <col min="2" max="2" width="30.265625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="41.73046875" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B3" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B4" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B5" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B8" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B10" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B13" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B23" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B25" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="12" t="s">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B27" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B32" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="9" t="s">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="12" t="s">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B34" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B35" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="12" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B36" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B37" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="12" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B38" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="9" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B39" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B40" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B41" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
+      <c r="B42" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1671,7 +1672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC076892-0F29-4090-8AC6-F89B74DDF476}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1685,1235 +1686,1235 @@
       <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="5" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17" style="5" customWidth="1"/>
-    <col min="11" max="11" width="5" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="29.86328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.86328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.86328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.86328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.86328125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="5" style="4" customWidth="1"/>
+    <col min="10" max="10" width="17" style="4" customWidth="1"/>
+    <col min="11" max="11" width="5" style="4" customWidth="1"/>
+    <col min="12" max="16384" width="9.1328125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="29" t="s">
+      <c r="C11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="29" t="s">
+      <c r="E11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="29" t="s">
+      <c r="G11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="29" t="s">
+      <c r="I11" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="K11" s="32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A13" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>467160</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="23">
+      <c r="C13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="22">
         <v>15799</v>
       </c>
-      <c r="E13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="18">
+      <c r="E13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="17">
         <v>190056.7</v>
       </c>
-      <c r="G13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="18">
+      <c r="G13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="17">
         <v>1023.9</v>
       </c>
-      <c r="I13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="18">
+      <c r="I13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="17">
         <v>260280.1</v>
       </c>
-      <c r="K13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="7"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="K13" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A14" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>12375.8</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="21">
+      <c r="C14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="20">
         <v>36.200000000000003</v>
       </c>
-      <c r="E14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="21">
+      <c r="E14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="20">
         <v>6834.1</v>
       </c>
-      <c r="G14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="21">
+      <c r="G14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="20">
         <v>72.7</v>
       </c>
-      <c r="I14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="21">
+      <c r="I14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="20">
         <v>5432.8</v>
       </c>
-      <c r="K14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="7"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="K14" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="18">
+      <c r="B15" s="17">
         <v>68432.3</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="18">
+      <c r="C15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="17">
         <v>951.5</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="18">
+      <c r="E15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="17">
         <v>39070.5</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="18">
+      <c r="G15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="17">
         <v>714.9</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="18">
+      <c r="I15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="17">
         <v>27695.3</v>
       </c>
-      <c r="K15" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="7"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="K15" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>103169.5</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="21">
+      <c r="C16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="20">
         <v>313.7</v>
       </c>
-      <c r="E16" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="21">
+      <c r="E16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="20">
         <v>76056.7</v>
       </c>
-      <c r="G16" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="21">
+      <c r="G16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="20">
         <v>212.3</v>
       </c>
-      <c r="I16" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="21">
+      <c r="I16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="20">
         <v>26586.9</v>
       </c>
-      <c r="K16" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="7"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="K16" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="18">
+      <c r="B17" s="17">
         <v>2053033.4</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="18">
+      <c r="E17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="17">
         <v>1017276.7</v>
       </c>
-      <c r="G17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="17" t="s">
+      <c r="G17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" s="18">
+      <c r="I17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="17">
         <v>992163.6</v>
       </c>
-      <c r="K17" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="K17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>2360.4</v>
       </c>
-      <c r="C18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="21">
+      <c r="C18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="20">
         <v>116.5</v>
       </c>
-      <c r="E18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="21">
+      <c r="E18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="20">
         <v>594.5</v>
       </c>
-      <c r="G18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="21">
+      <c r="G18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="20">
         <v>1.8</v>
       </c>
-      <c r="I18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J18" s="21">
+      <c r="I18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" s="20">
         <v>1647.6</v>
       </c>
-      <c r="K18" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="K18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A19" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="17">
         <v>204043.6</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="18">
+      <c r="C19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="17">
         <v>153.6</v>
       </c>
-      <c r="E19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="18">
+      <c r="E19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="17">
         <v>59387.7</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="18">
+      <c r="G19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="17">
         <v>21575.5</v>
       </c>
-      <c r="I19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="18">
+      <c r="I19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="17">
         <v>122926.9</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="K19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A20" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="22">
+      <c r="B20" s="21">
         <v>331063</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="20" t="s">
+      <c r="C20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="20" t="s">
+      <c r="E20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="20" t="s">
+      <c r="G20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="20" t="s">
+      <c r="I20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="K20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A21" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>1188862</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="18">
+      <c r="C21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="17">
         <v>1016.9</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="18">
+      <c r="E21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="17">
         <v>603566.69999999995</v>
       </c>
-      <c r="G21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="18">
+      <c r="G21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="17">
         <v>1419.7</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J21" s="18">
+      <c r="I21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" s="17">
         <v>582858.69999999995</v>
       </c>
-      <c r="K21" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="K21" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>2380106</v>
       </c>
-      <c r="C22" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="21">
+      <c r="C22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="20">
         <v>31057.4</v>
       </c>
-      <c r="E22" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" s="22">
+      <c r="E22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="21">
         <v>1152095</v>
       </c>
-      <c r="G22" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H22" s="21">
+      <c r="G22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="20">
         <v>1255.3</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J22" s="21">
+      <c r="I22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="20">
         <v>1195695.8999999999</v>
       </c>
-      <c r="K22" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="K22" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A23" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>39387</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="18">
+      <c r="C23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="17">
         <v>83.9</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F23" s="18">
+      <c r="E23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="17">
         <v>26320.5</v>
       </c>
-      <c r="G23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23" s="18">
+      <c r="G23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="17">
         <v>102.3</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J23" s="18">
+      <c r="I23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" s="17">
         <v>12880.3</v>
       </c>
-      <c r="K23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="K23" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>2409841.1</v>
       </c>
-      <c r="C24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="21">
+      <c r="C24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="20">
         <v>82003.100000000006</v>
       </c>
-      <c r="E24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" s="21">
+      <c r="E24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="20">
         <v>1509816.3</v>
       </c>
-      <c r="G24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="21">
+      <c r="G24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="20">
         <v>58421.9</v>
       </c>
-      <c r="I24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" s="21">
+      <c r="I24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="20">
         <v>759599.9</v>
       </c>
-      <c r="K24" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="K24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A25" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>20958</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="18">
+      <c r="C25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="17">
         <v>76.099999999999994</v>
       </c>
-      <c r="E25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" s="18">
+      <c r="E25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="17">
         <v>3388.8</v>
       </c>
-      <c r="G25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H25" s="18">
+      <c r="G25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="17">
         <v>711.2</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="18">
+      <c r="I25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" s="17">
         <v>16781.900000000001</v>
       </c>
-      <c r="K25" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="K25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A26" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="21">
+      <c r="B26" s="20">
         <v>11244.5</v>
       </c>
-      <c r="C26" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="21">
+      <c r="C26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="20">
         <v>185.4</v>
       </c>
-      <c r="E26" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="21">
+      <c r="E26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="20">
         <v>2562.6999999999998</v>
       </c>
-      <c r="G26" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H26" s="21">
+      <c r="G26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="20">
         <v>141.69999999999999</v>
       </c>
-      <c r="I26" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J26" s="21">
+      <c r="I26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" s="20">
         <v>8354.7000000000007</v>
       </c>
-      <c r="K26" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="K26" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A27" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="18">
+      <c r="B27" s="17">
         <v>17523.7</v>
       </c>
-      <c r="C27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="23">
+      <c r="C27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="22">
         <v>68</v>
       </c>
-      <c r="E27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F27" s="18">
+      <c r="E27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" s="17">
         <v>4081.4</v>
       </c>
-      <c r="G27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="18">
+      <c r="G27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="17">
         <v>134.5</v>
       </c>
-      <c r="I27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J27" s="18">
+      <c r="I27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" s="17">
         <v>13239.9</v>
       </c>
-      <c r="K27" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="K27" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L27" s="6"/>
+    </row>
+    <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A28" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="21">
+      <c r="B28" s="20">
         <v>14012.8</v>
       </c>
-      <c r="C28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="22">
+      <c r="C28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="21">
         <v>0</v>
       </c>
-      <c r="E28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" s="21">
+      <c r="E28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="20">
         <v>7528.5</v>
       </c>
-      <c r="G28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="21">
+      <c r="G28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="20">
         <v>132.6</v>
       </c>
-      <c r="I28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J28" s="21">
+      <c r="I28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" s="20">
         <v>6351.7</v>
       </c>
-      <c r="K28" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="K28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L28" s="6"/>
+    </row>
+    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A29" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="18">
+      <c r="B29" s="17">
         <v>93910.9</v>
       </c>
-      <c r="C29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="18">
+      <c r="C29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="17">
         <v>937.1</v>
       </c>
-      <c r="E29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F29" s="18">
+      <c r="E29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="17">
         <v>36073.699999999997</v>
       </c>
-      <c r="G29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" s="18">
+      <c r="G29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="17">
         <v>25049.7</v>
       </c>
-      <c r="I29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J29" s="18">
+      <c r="I29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="17">
         <v>31850.400000000001</v>
       </c>
-      <c r="K29" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="K29" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="6"/>
+    </row>
+    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A30" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="21">
+      <c r="B30" s="20">
         <v>5695.6</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="21">
+      <c r="C30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="20">
         <v>118.9</v>
       </c>
-      <c r="E30" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F30" s="21">
+      <c r="E30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="20">
         <v>3373.3</v>
       </c>
-      <c r="G30" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H30" s="22">
+      <c r="G30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="21">
         <v>1340</v>
       </c>
-      <c r="I30" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J30" s="21">
+      <c r="I30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J30" s="20">
         <v>863.3</v>
       </c>
-      <c r="K30" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="K30" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L30" s="6"/>
+    </row>
+    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A31" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <v>394630</v>
       </c>
-      <c r="C31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="23">
+      <c r="C31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="22">
         <v>8739</v>
       </c>
-      <c r="E31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" s="23">
+      <c r="E31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="22">
         <v>227152</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="23">
+      <c r="G31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="22">
         <v>764</v>
       </c>
-      <c r="I31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J31" s="23">
+      <c r="I31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J31" s="22">
         <v>157975</v>
       </c>
-      <c r="K31" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="K31" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L31" s="6"/>
+    </row>
+    <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A32" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="20">
         <v>280425.8</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="22">
+      <c r="C32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="21">
         <v>293</v>
       </c>
-      <c r="E32" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F32" s="21">
+      <c r="E32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="20">
         <v>91761.600000000006</v>
       </c>
-      <c r="G32" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="21">
+      <c r="G32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="20">
         <v>1816.3</v>
       </c>
-      <c r="I32" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J32" s="21">
+      <c r="I32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J32" s="20">
         <v>186554.9</v>
       </c>
-      <c r="K32" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="K32" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L32" s="6"/>
+    </row>
+    <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A33" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="18">
+      <c r="B33" s="17">
         <v>245518.2</v>
       </c>
-      <c r="C33" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="18">
+      <c r="C33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="17">
         <v>7429.8</v>
       </c>
-      <c r="E33" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F33" s="18">
+      <c r="E33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="17">
         <v>123002.5</v>
       </c>
-      <c r="G33" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" s="18">
+      <c r="G33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="17">
         <v>6728.2</v>
       </c>
-      <c r="I33" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J33" s="18">
+      <c r="I33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J33" s="17">
         <v>108357.8</v>
       </c>
-      <c r="K33" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="K33" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" s="6"/>
+    </row>
+    <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A34" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B34" s="21">
+      <c r="B34" s="20">
         <v>249980.3</v>
       </c>
-      <c r="C34" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="21">
+      <c r="C34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="20">
         <v>2111.6999999999998</v>
       </c>
-      <c r="E34" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" s="21">
+      <c r="E34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="20">
         <v>83902.399999999994</v>
       </c>
-      <c r="G34" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H34" s="21">
+      <c r="G34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="20">
         <v>34618.1</v>
       </c>
-      <c r="I34" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J34" s="21">
+      <c r="I34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J34" s="20">
         <v>129348.1</v>
       </c>
-      <c r="K34" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="K34" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34" s="6"/>
+    </row>
+    <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A35" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <v>78091</v>
       </c>
-      <c r="C35" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="18">
+      <c r="C35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="17">
         <v>1880.6</v>
       </c>
-      <c r="E35" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F35" s="18">
+      <c r="E35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="17">
         <v>38920.9</v>
       </c>
-      <c r="G35" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" s="18">
+      <c r="G35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="17">
         <v>1134.7</v>
       </c>
-      <c r="I35" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J35" s="18">
+      <c r="I35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J35" s="17">
         <v>36154.800000000003</v>
       </c>
-      <c r="K35" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="K35" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" s="6"/>
+    </row>
+    <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A36" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="21">
+      <c r="B36" s="20">
         <v>31744.400000000001</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="21">
+      <c r="C36" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="20">
         <v>74.400000000000006</v>
       </c>
-      <c r="E36" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F36" s="21">
+      <c r="E36" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="20">
         <v>12246.6</v>
       </c>
-      <c r="G36" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="21">
+      <c r="G36" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="20">
         <v>23.1</v>
       </c>
-      <c r="I36" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J36" s="21">
+      <c r="I36" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="20">
         <v>19400.3</v>
       </c>
-      <c r="K36" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="K36" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L36" s="6"/>
+    </row>
+    <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A37" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="18">
+      <c r="B37" s="17">
         <v>45201.8</v>
       </c>
-      <c r="C37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="18">
+      <c r="C37" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="17">
         <v>282.10000000000002</v>
       </c>
-      <c r="E37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" s="18">
+      <c r="E37" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="17">
         <v>18918.900000000001</v>
       </c>
-      <c r="G37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H37" s="18">
+      <c r="G37" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="17">
         <v>0.5</v>
       </c>
-      <c r="I37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="18">
+      <c r="I37" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="17">
         <v>26000.3</v>
       </c>
-      <c r="K37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="K37" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L37" s="6"/>
+    </row>
+    <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A38" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="21">
         <v>142507</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="22">
+      <c r="C38" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="21">
         <v>4212</v>
       </c>
-      <c r="E38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F38" s="22">
+      <c r="E38" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="21">
         <v>49480</v>
       </c>
-      <c r="G38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H38" s="22">
+      <c r="G38" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="21">
         <v>5</v>
       </c>
-      <c r="I38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J38" s="22">
+      <c r="I38" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J38" s="21">
         <v>88810</v>
       </c>
-      <c r="K38" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="K38" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L38" s="6"/>
+    </row>
+    <row r="39" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A39" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="18">
+      <c r="B39" s="17">
         <v>168959.1</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="18">
+      <c r="C39" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="17">
         <v>10650.8</v>
       </c>
-      <c r="E39" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="18">
+      <c r="E39" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="17">
         <v>123544.2</v>
       </c>
-      <c r="G39" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H39" s="18">
+      <c r="G39" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="17">
         <v>2166.9</v>
       </c>
-      <c r="I39" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J39" s="18">
+      <c r="I39" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="17">
         <v>32597.200000000001</v>
       </c>
-      <c r="K39" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="K39" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L39" s="6"/>
+    </row>
+    <row r="40" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A40" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="21">
+      <c r="C40" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="20">
         <v>3276.4</v>
       </c>
-      <c r="E40" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F40" s="21">
+      <c r="E40" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="20">
         <v>70719.5</v>
       </c>
-      <c r="G40" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="21">
+      <c r="G40" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="20">
         <v>254.5</v>
       </c>
-      <c r="I40" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="J40" s="21">
+      <c r="I40" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J40" s="20">
         <v>71226.8</v>
       </c>
-      <c r="K40" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
+      <c r="K40" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="6"/>
+    </row>
+    <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A41" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="18">
+      <c r="B41" s="17">
         <v>2223543.7999999998</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="17" t="s">
+      <c r="C41" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="17">
+      <c r="E41" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="16">
         <f>'HM Treasury UK debt'!C5*B41</f>
         <v>1334126.28</v>
       </c>
-      <c r="G41" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="17">
+      <c r="G41" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="16">
         <f>'HM Treasury UK debt'!C7*B41</f>
         <v>111177.19</v>
       </c>
-      <c r="I41" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J41" s="17">
+      <c r="I41" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J41" s="16">
         <f>'HM Treasury UK debt'!C6*B41</f>
         <v>578121.38799999992</v>
       </c>
-      <c r="K41" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="13" t="s">
+      <c r="K41" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A43" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+    <row r="44" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A44" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B46" s="7">
         <f>SUM(D13:F41)/SUM(B13:B41)</f>
         <v>0.53326125897438392</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B47" s="7">
         <f>SUM(H13:H41)/SUM(B13:B41)</f>
         <v>2.0400704437990958E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <f>SUM(J13:J42)/SUM(B13:B41)</f>
         <v>0.41402041241119519</v>
       </c>
@@ -2931,23 +2932,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7CC32AA-58E6-48D4-826D-C6ADF161AB87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.86328125" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2955,78 +2956,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="33">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="34">
         <f>'EUROSTAT data'!B46</f>
         <v>0.53326125897438392</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="34">
         <f>'EUROSTAT data'!B47</f>
         <v>2.0400704437990958E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="34">
         <f>'EUROSTAT data'!B48</f>
         <v>0.41402041241119519</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="35">
         <v>0</v>
       </c>
     </row>

--- a/InputData/io-model/PoNDHbE/Perc of National Debt Held by Entity.xlsx
+++ b/InputData/io-model/PoNDHbE/Perc of National Debt Held by Entity.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-eu\InputData\io-model\PoNDHbE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Claire Trevisan\Dropbox (Energy Innovation)\Documents\GitHub\eps-eu\InputData\io-model\PoNDHbE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9900DFCA-F08F-42C2-8158-FC8143A3448D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="60" windowWidth="16320" windowHeight="20145"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="HM Treasury UK debt" sheetId="10" r:id="rId2"/>
+    <sheet name="HM Treasury UK debt" sheetId="10" state="hidden" r:id="rId2"/>
     <sheet name="EUROSTAT summary" sheetId="11" r:id="rId3"/>
     <sheet name="EUROSTAT structure" sheetId="12" r:id="rId4"/>
     <sheet name="EUROSTAT data" sheetId="13" r:id="rId5"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="102">
   <si>
     <t>labor and consumers</t>
   </si>
@@ -72,9 +73,6 @@
     <t>Unit: dimensionless (% of debt held)</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>Annual</t>
   </si>
   <si>
@@ -96,9 +94,6 @@
     <t>Unit of measure</t>
   </si>
   <si>
-    <t>22/06/2020 11:00</t>
-  </si>
-  <si>
     <t>Rest of the world</t>
   </si>
   <si>
@@ -292,9 +287,6 @@
   </si>
   <si>
     <t xml:space="preserve">Dataset: </t>
-  </si>
-  <si>
-    <t>Data extracted on 18/04/2021 02:21:16 from [ESTAT]</t>
   </si>
   <si>
     <t>Source:</t>
@@ -349,40 +341,34 @@
     <t>EUROSTAT</t>
   </si>
   <si>
-    <t>https://ec.europa.eu/eurostat/databrowser/view/NAIO_10_CP1610__custom_806876/default/table?lang=en</t>
-  </si>
-  <si>
     <t>Data brower</t>
   </si>
   <si>
-    <t>HM Treasury, United Kingdom</t>
-  </si>
-  <si>
-    <t>"Debt management report 2016-2017"</t>
-  </si>
-  <si>
-    <t>https://www.dmo.gov.uk/media/2065/drmr1617.pdf</t>
-  </si>
-  <si>
-    <t>Chart A.4</t>
-  </si>
-  <si>
-    <t>UK data on apportionment by industry is from 2016-2017 (though base data is from 2019, as with the other countries).</t>
-  </si>
-  <si>
-    <t>Eurostat and HM Treasury (UK) data.</t>
+    <t>https://ec.europa.eu/eurostat/databrowser/view/GOV_10DD_GGD__custom_831612/default/table?lang=en</t>
+  </si>
+  <si>
+    <t>Data extracted on 01/12/2022 21:12:31 from [ESTAT]</t>
+  </si>
+  <si>
+    <t>General government debt [GOV_10DD_GGD__custom_4020384]</t>
+  </si>
+  <si>
+    <t>15/06/2022 11:00</t>
+  </si>
+  <si>
+    <t>Eurostat data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.##########"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +463,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -542,7 +537,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -612,7 +607,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -620,15 +615,33 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -989,137 +1002,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="28">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="26" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="26"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" s="29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" s="26"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1127,46 +1115,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <f>0.23+0.09+0.28</f>
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>0.26</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>0.05</v>
@@ -1178,47 +1166,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A6:O17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.86328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="41.73046875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.73046875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.36328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="41.7265625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="4" customWidth="1"/>
     <col min="5" max="5" width="16" style="4" customWidth="1"/>
-    <col min="6" max="6" width="17.265625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="6.265625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.1328125" style="4"/>
+    <col min="6" max="6" width="17.26953125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.26953125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.08984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="42.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="31"/>
@@ -1234,70 +1222,74 @@
       <c r="N8" s="31"/>
       <c r="O8" s="31"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C14" s="11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B16" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="8" t="s">
         <v>11</v>
+      </c>
+      <c r="G17" s="8">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
@@ -1305,9 +1297,9 @@
     <mergeCell ref="B8:O8"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
-    <hyperlink ref="B17" location="'Sheet 1'!A1" display="Sheet 1"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B17" location="'Sheet 1'!A1" display="Sheet 1" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId3"/>
@@ -1315,355 +1307,355 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="4"/>
-    <col min="2" max="2" width="30.265625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="41.73046875" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.1328125" style="4"/>
+    <col min="1" max="1" width="9.08984375" style="4"/>
+    <col min="2" max="2" width="30.26953125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="41.7265625" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9.08984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" s="15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B13" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B14" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B24" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B26" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B27" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B29" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B30" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B6" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B7" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B10" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B12" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B14" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B15" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B16" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B17" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B18" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B19" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B22" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B23" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B24" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B25" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B26" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B27" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B28" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B29" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B30" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B31" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.45">
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B33" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B36" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B37" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="8">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B38" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B40" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B42" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B36" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B37" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B38" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B39" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B40" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B41" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.45">
-      <c r="B42" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1672,7 +1664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
@@ -1683,1240 +1675,1222 @@
       <selection activeCell="D48" sqref="D48"/>
       <selection pane="topRight" activeCell="D48" sqref="D48"/>
       <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
-      <selection pane="bottomRight" activeCell="D48" sqref="D48"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="11.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.86328125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.86328125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="29.81640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.86328125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.81640625" style="4" customWidth="1"/>
     <col min="5" max="5" width="5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.86328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.86328125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" style="4" customWidth="1"/>
     <col min="9" max="9" width="5" style="4" customWidth="1"/>
     <col min="10" max="10" width="17" style="4" customWidth="1"/>
     <col min="11" max="11" width="5" style="4" customWidth="1"/>
-    <col min="12" max="16384" width="9.1328125" style="4"/>
+    <col min="12" max="16384" width="9.08984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="1" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="C11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="32" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="12" t="s">
+      <c r="I11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="32" t="s">
+      <c r="K11" s="32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="33">
+        <v>548703</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="22">
+        <v>17023.5</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="17">
+        <v>235210.6</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="17">
+        <v>1033.8</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="17">
+        <v>295434.8</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="6"/>
+    </row>
+    <row r="14" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="34">
+        <v>17014.3</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="20">
+        <v>30.2</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="20">
+        <v>9073</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="20">
+        <v>73.5</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="20">
+        <v>7837.5</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="35">
+        <v>103249.9</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1376.5</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="17">
+        <v>69266</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="17">
+        <v>1895.2</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="17">
+        <v>30712.2</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="34">
+        <v>123350.5</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="20">
+        <v>242.2</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="20">
+        <v>90224.7</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="20">
+        <v>220.4</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="20">
+        <v>32663.3</v>
+      </c>
+      <c r="K16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="35">
+        <v>2475775.7000000002</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="22">
-        <v>467160</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="22">
-        <v>15799</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="17">
-        <v>190056.7</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="17">
-        <v>1023.9</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="17">
-        <v>260280.1</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="20">
-        <v>12375.8</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="20">
-        <v>36.200000000000003</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="20">
-        <v>6834.1</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="20">
-        <v>72.7</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="20">
-        <v>5432.8</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B15" s="17">
-        <v>68432.3</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="17">
-        <v>951.5</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="17">
-        <v>39070.5</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="17">
-        <v>714.9</v>
-      </c>
-      <c r="I15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="17">
-        <v>27695.3</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B16" s="20">
-        <v>103169.5</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="20">
-        <v>313.7</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="20">
-        <v>76056.7</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="20">
-        <v>212.3</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="20">
-        <v>26586.9</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="17">
-        <v>2053033.4</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>24</v>
-      </c>
       <c r="E17" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F17" s="17">
-        <v>1017276.7</v>
+        <v>1401162.8</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J17" s="17">
-        <v>992163.6</v>
+        <v>1028417.6</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L17" s="6"/>
     </row>
-    <row r="18" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="20">
-        <v>2360.4</v>
+        <v>67</v>
+      </c>
+      <c r="B18" s="34">
+        <v>5534.9</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="20">
-        <v>116.5</v>
+        <v>105.5</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" s="20">
-        <v>594.5</v>
+        <v>1569.1</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H18" s="20">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J18" s="20">
-        <v>1647.6</v>
+        <v>3857.9</v>
       </c>
       <c r="K18" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L18" s="6"/>
     </row>
-    <row r="19" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="17">
-        <v>204043.6</v>
+        <v>66</v>
+      </c>
+      <c r="B19" s="35">
+        <v>235850.7</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" s="17">
-        <v>153.6</v>
+        <v>190</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F19" s="17">
-        <v>59387.7</v>
+        <v>84823.3</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H19" s="17">
-        <v>21575.5</v>
+        <v>24389.4</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J19" s="17">
-        <v>122926.9</v>
+        <v>126448.1</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L19" s="6"/>
     </row>
-    <row r="20" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="21">
-        <v>331063</v>
+        <v>65</v>
+      </c>
+      <c r="B20" s="36">
+        <v>353389</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J20" s="19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K20" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="22">
-        <v>1188862</v>
+        <v>64</v>
+      </c>
+      <c r="B21" s="35">
+        <v>1427235.4</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="17">
-        <v>1016.9</v>
+        <v>1584.7</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F21" s="17">
-        <v>603566.69999999995</v>
+        <v>807883.2</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H21" s="17">
-        <v>1419.7</v>
+        <v>1064.5999999999999</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J21" s="17">
-        <v>582858.69999999995</v>
+        <v>616702.80000000005</v>
       </c>
       <c r="K21" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="21">
-        <v>2380106</v>
+        <v>63</v>
+      </c>
+      <c r="B22" s="36">
+        <v>2813087</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D22" s="20">
-        <v>31057.4</v>
+        <v>30644.5</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" s="21">
-        <v>1152095</v>
+        <v>1481426.1</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H22" s="20">
-        <v>1255.3</v>
+        <v>1279.5999999999999</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J22" s="20">
-        <v>1195695.8999999999</v>
+        <v>1299736.7</v>
       </c>
       <c r="K22" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="22">
-        <v>39387</v>
+        <v>62</v>
+      </c>
+      <c r="B23" s="35">
+        <v>45719.4</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="17">
-        <v>83.9</v>
+        <v>83.7</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F23" s="17">
-        <v>26320.5</v>
+        <v>29819.3</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H23" s="17">
-        <v>102.3</v>
+        <v>268.3</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J23" s="17">
-        <v>12880.3</v>
+        <v>15548.1</v>
       </c>
       <c r="K23" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="20">
-        <v>2409841.1</v>
+        <v>61</v>
+      </c>
+      <c r="B24" s="34">
+        <v>2677910.4</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" s="20">
-        <v>82003.100000000006</v>
+        <v>43097.1</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F24" s="20">
-        <v>1509816.3</v>
+        <v>1685735.4</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H24" s="20">
-        <v>58421.9</v>
+        <v>168921.9</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J24" s="20">
-        <v>759599.9</v>
+        <v>780156.1</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="22">
-        <v>20958</v>
+        <v>60</v>
+      </c>
+      <c r="B25" s="33">
+        <v>24271</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D25" s="17">
-        <v>76.099999999999994</v>
+        <v>23</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F25" s="17">
-        <v>3388.8</v>
+        <v>2049.6999999999998</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H25" s="17">
-        <v>711.2</v>
+        <v>511.7</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J25" s="17">
-        <v>16781.900000000001</v>
+        <v>21686.7</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="20">
-        <v>11244.5</v>
+        <v>59</v>
+      </c>
+      <c r="B26" s="34">
+        <v>14739.7</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D26" s="20">
-        <v>185.4</v>
+        <v>363.8</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F26" s="20">
-        <v>2562.6999999999998</v>
+        <v>4801.7</v>
       </c>
       <c r="G26" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H26" s="20">
-        <v>141.69999999999999</v>
+        <v>152.4</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J26" s="20">
-        <v>8354.7000000000007</v>
+        <v>9421.7000000000007</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="17">
-        <v>17523.7</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="35">
+        <v>24535.5</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="22">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F27" s="17">
-        <v>4081.4</v>
+        <v>8577.9</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H27" s="17">
-        <v>134.5</v>
+        <v>27.5</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J27" s="17">
-        <v>13239.9</v>
+        <v>15884</v>
       </c>
       <c r="K27" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L27" s="6"/>
     </row>
-    <row r="28" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A28" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="20">
-        <v>14012.8</v>
+        <v>57</v>
+      </c>
+      <c r="B28" s="34">
+        <v>17855.8</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D28" s="21">
         <v>0</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F28" s="20">
-        <v>7528.5</v>
+        <v>8864</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H28" s="20">
-        <v>132.6</v>
+        <v>117.8</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J28" s="20">
-        <v>6351.7</v>
+        <v>8873.9</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L28" s="6"/>
     </row>
-    <row r="29" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="17">
-        <v>93910.9</v>
+        <v>56</v>
+      </c>
+      <c r="B29" s="35">
+        <v>114884.6</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D29" s="17">
-        <v>937.1</v>
+        <v>1668.5</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29" s="17">
-        <v>36073.699999999997</v>
+        <v>49206.400000000001</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H29" s="17">
-        <v>25049.7</v>
+        <v>27567.200000000001</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J29" s="17">
-        <v>31850.400000000001</v>
+        <v>36442.5</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A30" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="20">
-        <v>5695.6</v>
+        <v>55</v>
+      </c>
+      <c r="B30" s="34">
+        <v>8284.4</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30" s="20">
-        <v>118.9</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" s="20">
-        <v>3373.3</v>
+        <v>4866.3999999999996</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H30" s="21">
-        <v>1340</v>
+        <v>1306.4000000000001</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J30" s="20">
-        <v>863.3</v>
+        <v>1971.4</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L30" s="6"/>
     </row>
-    <row r="31" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="B31" s="22">
-        <v>394630</v>
+        <v>54</v>
+      </c>
+      <c r="B31" s="33">
+        <v>448110</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D31" s="22">
-        <v>8739</v>
+        <v>8729</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F31" s="22">
-        <v>227152</v>
+        <v>283210</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H31" s="22">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J31" s="22">
-        <v>157975</v>
+        <v>155392</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A32" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="20">
-        <v>280425.8</v>
+        <v>53</v>
+      </c>
+      <c r="B32" s="34">
+        <v>334083.8</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D32" s="21">
-        <v>293</v>
+        <v>361.7</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F32" s="20">
-        <v>91761.600000000006</v>
+        <v>131198.20000000001</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H32" s="20">
-        <v>1816.3</v>
+        <v>231.8</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J32" s="20">
-        <v>186554.9</v>
+        <v>202292.2</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L32" s="6"/>
     </row>
-    <row r="33" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A33" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="17">
-        <v>245518.2</v>
+        <v>52</v>
+      </c>
+      <c r="B33" s="35">
+        <v>306835.90000000002</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33" s="17">
-        <v>7429.8</v>
+        <v>7271.6</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F33" s="17">
-        <v>123002.5</v>
+        <v>185372.5</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H33" s="17">
-        <v>6728.2</v>
+        <v>12659.2</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J33" s="17">
-        <v>108357.8</v>
+        <v>101532.6</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L33" s="6"/>
     </row>
-    <row r="34" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A34" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="20">
-        <v>249980.3</v>
+        <v>51</v>
+      </c>
+      <c r="B34" s="34">
+        <v>269231.8</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34" s="20">
-        <v>2111.6999999999998</v>
+        <v>2310.3000000000002</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F34" s="20">
-        <v>83902.399999999994</v>
+        <v>112042.1</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H34" s="20">
-        <v>34618.1</v>
+        <v>33119.699999999997</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J34" s="20">
-        <v>129348.1</v>
+        <v>121759.7</v>
       </c>
       <c r="K34" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L34" s="6"/>
     </row>
-    <row r="35" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A35" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B35" s="22">
-        <v>78091</v>
+        <v>50</v>
+      </c>
+      <c r="B35" s="33">
+        <v>116618</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D35" s="17">
-        <v>1880.6</v>
+        <v>2498.6999999999998</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F35" s="17">
-        <v>38920.9</v>
+        <v>53208.800000000003</v>
       </c>
       <c r="G35" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H35" s="17">
-        <v>1134.7</v>
+        <v>3512.7</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J35" s="17">
-        <v>36154.800000000003</v>
+        <v>57397.8</v>
       </c>
       <c r="K35" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L35" s="6"/>
     </row>
-    <row r="36" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A36" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" s="20">
-        <v>31744.400000000001</v>
+        <v>49</v>
+      </c>
+      <c r="B36" s="34">
+        <v>38857.800000000003</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D36" s="20">
-        <v>74.400000000000006</v>
+        <v>73</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F36" s="20">
-        <v>12246.6</v>
+        <v>17305.400000000001</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H36" s="20">
-        <v>23.1</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="I36" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J36" s="20">
-        <v>19400.3</v>
+        <v>21442.6</v>
       </c>
       <c r="K36" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L36" s="6"/>
     </row>
-    <row r="37" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="17">
-        <v>45201.8</v>
+        <v>48</v>
+      </c>
+      <c r="B37" s="35">
+        <v>61259.4</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D37" s="17">
-        <v>282.10000000000002</v>
+        <v>2367.6999999999998</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F37" s="17">
-        <v>18918.900000000001</v>
+        <v>28497</v>
       </c>
       <c r="G37" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H37" s="17">
-        <v>0.5</v>
+        <v>13.9</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J37" s="17">
-        <v>26000.3</v>
+        <v>30380.7</v>
       </c>
       <c r="K37" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L37" s="6"/>
     </row>
-    <row r="38" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A38" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B38" s="21">
-        <v>142507</v>
+        <v>47</v>
+      </c>
+      <c r="B38" s="36">
+        <v>166411</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D38" s="21">
-        <v>4212</v>
+        <v>3825</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F38" s="21">
-        <v>49480</v>
+        <v>76375</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H38" s="21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I38" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J38" s="21">
-        <v>88810</v>
+        <v>86209</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L38" s="6"/>
     </row>
-    <row r="39" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="17">
-        <v>168959.1</v>
+        <v>46</v>
+      </c>
+      <c r="B39" s="35">
+        <v>192566.6</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D39" s="17">
-        <v>10650.8</v>
+        <v>12569.6</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F39" s="17">
-        <v>123544.2</v>
+        <v>141672.29999999999</v>
       </c>
       <c r="G39" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H39" s="17">
-        <v>2166.9</v>
+        <v>1484.9</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J39" s="17">
-        <v>32597.200000000001</v>
+        <v>36839.699999999997</v>
       </c>
       <c r="K39" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L39" s="6"/>
     </row>
-    <row r="40" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>22</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D40" s="20">
-        <v>3276.4</v>
+        <v>3968.4</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F40" s="20">
-        <v>70719.5</v>
+        <v>76045.5</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H40" s="20">
-        <v>254.5</v>
+        <v>236</v>
       </c>
       <c r="I40" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J40" s="20">
-        <v>71226.8</v>
+        <v>98815.9</v>
       </c>
       <c r="K40" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A41" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="17">
-        <v>2223543.7999999998</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F41" s="16">
-        <f>'HM Treasury UK debt'!C5*B41</f>
-        <v>1334126.28</v>
-      </c>
-      <c r="G41" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41" s="16">
-        <f>'HM Treasury UK debt'!C7*B41</f>
-        <v>111177.19</v>
-      </c>
-      <c r="I41" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="J41" s="16">
-        <f>'HM Treasury UK debt'!C6*B41</f>
-        <v>578121.38799999992</v>
-      </c>
+    <row r="41" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="18"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
       <c r="K41" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="L41" s="6"/>
+    </row>
+    <row r="42" spans="1:12" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L42" s="6"/>
+    </row>
+    <row r="43" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A43" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.45">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>1</v>
       </c>
       <c r="B46" s="7">
-        <f>SUM(D13:F41)/SUM(B13:B41)</f>
-        <v>0.53326125897438392</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.45">
+        <f>SUM(D13:F40)/SUM(B13:B40)</f>
+        <v>0.55687445139899827</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>0</v>
       </c>
       <c r="B47" s="7">
-        <f>SUM(H13:H41)/SUM(B13:B41)</f>
-        <v>2.0400704437990958E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="11.45" customHeight="1" x14ac:dyDescent="0.45">
+        <f>SUM(H13:H40)/SUM(B13:B40)</f>
+        <v>2.1666037876062957E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="11.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>3</v>
       </c>
       <c r="B48" s="7">
-        <f>SUM(J13:J42)/SUM(B13:B41)</f>
-        <v>0.41402041241119519</v>
+        <f>SUM(J13:J40)/SUM(B13:B40)</f>
+        <v>0.40445118959430804</v>
       </c>
     </row>
   </sheetData>
@@ -2932,23 +2906,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.86328125" customWidth="1"/>
-    <col min="2" max="2" width="22.3984375" customWidth="1"/>
+    <col min="1" max="1" width="36.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2956,78 +2930,78 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="29">
         <f>'EUROSTAT data'!B46</f>
-        <v>0.53326125897438392</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.55687445139899827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="29">
         <f>'EUROSTAT data'!B47</f>
-        <v>2.0400704437990958E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>2.1666037876062957E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="29">
         <f>'EUROSTAT data'!B48</f>
-        <v>0.41402041241119519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0.40445118959430804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35">
+      <c r="B9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10">
         <v>0</v>
       </c>
     </row>
